--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEXTOS_COMPLETOS-20210224T223800Z-001\TEXTOS_COMPLETOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45E21F4-9950-4D7F-BA96-CDD66D144502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A04D190-65F6-4656-BE80-81938A29481A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54B4146-CD70-4D13-A364-E6900D032E71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="428">
   <si>
     <t>Luz Adriana</t>
   </si>
@@ -1314,9 +1314,6 @@
     <t>Lancheros Ramada</t>
   </si>
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
     <t>CÓDIGO ESTUDIANTE</t>
   </si>
   <si>
@@ -1324,555 +1321,6 @@
   </si>
   <si>
     <t>APELLIDOS</t>
-  </si>
-  <si>
-    <t>2010A1</t>
-  </si>
-  <si>
-    <t>2011A1</t>
-  </si>
-  <si>
-    <t>2012A1</t>
-  </si>
-  <si>
-    <t>2012A2</t>
-  </si>
-  <si>
-    <t>2012A3</t>
-  </si>
-  <si>
-    <t>2012A4</t>
-  </si>
-  <si>
-    <t>2012A5</t>
-  </si>
-  <si>
-    <t>2012A6</t>
-  </si>
-  <si>
-    <t>2012B1</t>
-  </si>
-  <si>
-    <t>2012B2</t>
-  </si>
-  <si>
-    <t>2012B3</t>
-  </si>
-  <si>
-    <t>2012B4</t>
-  </si>
-  <si>
-    <t>2012B5</t>
-  </si>
-  <si>
-    <t>2012B6</t>
-  </si>
-  <si>
-    <t>2012B7</t>
-  </si>
-  <si>
-    <t>2012B8</t>
-  </si>
-  <si>
-    <t>2013A1</t>
-  </si>
-  <si>
-    <t>2013A2</t>
-  </si>
-  <si>
-    <t>2013A3</t>
-  </si>
-  <si>
-    <t>2013A4</t>
-  </si>
-  <si>
-    <t>2013A5</t>
-  </si>
-  <si>
-    <t>2013A6</t>
-  </si>
-  <si>
-    <t>2013A7</t>
-  </si>
-  <si>
-    <t>2013A8</t>
-  </si>
-  <si>
-    <t>2013A9</t>
-  </si>
-  <si>
-    <t>2013A10</t>
-  </si>
-  <si>
-    <t>2013A11</t>
-  </si>
-  <si>
-    <t>2013A12</t>
-  </si>
-  <si>
-    <t>2013A13</t>
-  </si>
-  <si>
-    <t>2013B1</t>
-  </si>
-  <si>
-    <t>2013B2</t>
-  </si>
-  <si>
-    <t>2013B3</t>
-  </si>
-  <si>
-    <t>2013B4</t>
-  </si>
-  <si>
-    <t>2013B5</t>
-  </si>
-  <si>
-    <t>2013B6</t>
-  </si>
-  <si>
-    <t>2013B7</t>
-  </si>
-  <si>
-    <t>2013B8</t>
-  </si>
-  <si>
-    <t>2014A1</t>
-  </si>
-  <si>
-    <t>2014A2</t>
-  </si>
-  <si>
-    <t>2014A3</t>
-  </si>
-  <si>
-    <t>2014A4</t>
-  </si>
-  <si>
-    <t>2014A5</t>
-  </si>
-  <si>
-    <t>2014A6</t>
-  </si>
-  <si>
-    <t>2014A7</t>
-  </si>
-  <si>
-    <t>2014A8</t>
-  </si>
-  <si>
-    <t>2014A9</t>
-  </si>
-  <si>
-    <t>2014A10</t>
-  </si>
-  <si>
-    <t>2014A11</t>
-  </si>
-  <si>
-    <t>2014A12</t>
-  </si>
-  <si>
-    <t>2014A13</t>
-  </si>
-  <si>
-    <t>2014A14</t>
-  </si>
-  <si>
-    <t>2014B1</t>
-  </si>
-  <si>
-    <t>2014B2</t>
-  </si>
-  <si>
-    <t>2014B3</t>
-  </si>
-  <si>
-    <t>2014B4</t>
-  </si>
-  <si>
-    <t>2014B5</t>
-  </si>
-  <si>
-    <t>2014B6</t>
-  </si>
-  <si>
-    <t>2014B7</t>
-  </si>
-  <si>
-    <t>2014B8</t>
-  </si>
-  <si>
-    <t>2014B9</t>
-  </si>
-  <si>
-    <t>2015A1</t>
-  </si>
-  <si>
-    <t>2015A2</t>
-  </si>
-  <si>
-    <t>2015A3</t>
-  </si>
-  <si>
-    <t>2015A4</t>
-  </si>
-  <si>
-    <t>2015A5</t>
-  </si>
-  <si>
-    <t>2015A6</t>
-  </si>
-  <si>
-    <t>2015A7</t>
-  </si>
-  <si>
-    <t>2015A8</t>
-  </si>
-  <si>
-    <t>2015A9</t>
-  </si>
-  <si>
-    <t>2015B1</t>
-  </si>
-  <si>
-    <t>2015B2</t>
-  </si>
-  <si>
-    <t>2015B3</t>
-  </si>
-  <si>
-    <t>2015B4</t>
-  </si>
-  <si>
-    <t>2015B5</t>
-  </si>
-  <si>
-    <t>2015B6</t>
-  </si>
-  <si>
-    <t>2015B7</t>
-  </si>
-  <si>
-    <t>2015B8</t>
-  </si>
-  <si>
-    <t>2015B9</t>
-  </si>
-  <si>
-    <t>2015B10</t>
-  </si>
-  <si>
-    <t>2015B11</t>
-  </si>
-  <si>
-    <t>2015B12</t>
-  </si>
-  <si>
-    <t>2016A1</t>
-  </si>
-  <si>
-    <t>2016A2</t>
-  </si>
-  <si>
-    <t>2016A3</t>
-  </si>
-  <si>
-    <t>2016A4</t>
-  </si>
-  <si>
-    <t>2016A5</t>
-  </si>
-  <si>
-    <t>2016A6</t>
-  </si>
-  <si>
-    <t>2016B1</t>
-  </si>
-  <si>
-    <t>2016B2</t>
-  </si>
-  <si>
-    <t>2016B3</t>
-  </si>
-  <si>
-    <t>2016B4</t>
-  </si>
-  <si>
-    <t>2016B5</t>
-  </si>
-  <si>
-    <t>2016B6</t>
-  </si>
-  <si>
-    <t>2016B7</t>
-  </si>
-  <si>
-    <t>2016B8</t>
-  </si>
-  <si>
-    <t>2017A1</t>
-  </si>
-  <si>
-    <t>2017A2</t>
-  </si>
-  <si>
-    <t>2017A3</t>
-  </si>
-  <si>
-    <t>2017A4</t>
-  </si>
-  <si>
-    <t>2017A5</t>
-  </si>
-  <si>
-    <t>2017A6</t>
-  </si>
-  <si>
-    <t>2017A7</t>
-  </si>
-  <si>
-    <t>2017A8</t>
-  </si>
-  <si>
-    <t>2017A9</t>
-  </si>
-  <si>
-    <t>2017A10</t>
-  </si>
-  <si>
-    <t>2017A11</t>
-  </si>
-  <si>
-    <t>2017A12</t>
-  </si>
-  <si>
-    <t>2017B1</t>
-  </si>
-  <si>
-    <t>2017B2</t>
-  </si>
-  <si>
-    <t>2017B3</t>
-  </si>
-  <si>
-    <t>2017B4</t>
-  </si>
-  <si>
-    <t>2017B5</t>
-  </si>
-  <si>
-    <t>2017B6</t>
-  </si>
-  <si>
-    <t>2017B7</t>
-  </si>
-  <si>
-    <t>2017B8</t>
-  </si>
-  <si>
-    <t>2017B9</t>
-  </si>
-  <si>
-    <t>2017B10</t>
-  </si>
-  <si>
-    <t>2017B11</t>
-  </si>
-  <si>
-    <t>2017B12</t>
-  </si>
-  <si>
-    <t>2018A1</t>
-  </si>
-  <si>
-    <t>2018A2</t>
-  </si>
-  <si>
-    <t>2018A3</t>
-  </si>
-  <si>
-    <t>2018A4</t>
-  </si>
-  <si>
-    <t>2018A5</t>
-  </si>
-  <si>
-    <t>2018A6</t>
-  </si>
-  <si>
-    <t>2018A7</t>
-  </si>
-  <si>
-    <t>2018A8</t>
-  </si>
-  <si>
-    <t>2018B1</t>
-  </si>
-  <si>
-    <t>2018B2</t>
-  </si>
-  <si>
-    <t>2018B3</t>
-  </si>
-  <si>
-    <t>2018B4</t>
-  </si>
-  <si>
-    <t>2018B5</t>
-  </si>
-  <si>
-    <t>2018B6</t>
-  </si>
-  <si>
-    <t>2018B7</t>
-  </si>
-  <si>
-    <t>2018B8</t>
-  </si>
-  <si>
-    <t>2018B9</t>
-  </si>
-  <si>
-    <t>2018B10</t>
-  </si>
-  <si>
-    <t>2018B11</t>
-  </si>
-  <si>
-    <t>2018B12</t>
-  </si>
-  <si>
-    <t>2018B13</t>
-  </si>
-  <si>
-    <t>2018B14</t>
-  </si>
-  <si>
-    <t>2018B15</t>
-  </si>
-  <si>
-    <t>2018B16</t>
-  </si>
-  <si>
-    <t>2018B17</t>
-  </si>
-  <si>
-    <t>2018B18</t>
-  </si>
-  <si>
-    <t>2018B19</t>
-  </si>
-  <si>
-    <t>2019A1</t>
-  </si>
-  <si>
-    <t>2019A2</t>
-  </si>
-  <si>
-    <t>2019A3</t>
-  </si>
-  <si>
-    <t>2019A4</t>
-  </si>
-  <si>
-    <t>2019A5</t>
-  </si>
-  <si>
-    <t>2019B1</t>
-  </si>
-  <si>
-    <t>2019B2</t>
-  </si>
-  <si>
-    <t>2019B3</t>
-  </si>
-  <si>
-    <t>2019B4</t>
-  </si>
-  <si>
-    <t>2019B5</t>
-  </si>
-  <si>
-    <t>2019B6</t>
-  </si>
-  <si>
-    <t>2019B7</t>
-  </si>
-  <si>
-    <t>2019B8</t>
-  </si>
-  <si>
-    <t>2019B9</t>
-  </si>
-  <si>
-    <t>2019B10</t>
-  </si>
-  <si>
-    <t>2019B11</t>
-  </si>
-  <si>
-    <t>2019B12</t>
-  </si>
-  <si>
-    <t>2019B13</t>
-  </si>
-  <si>
-    <t>2019B14</t>
-  </si>
-  <si>
-    <t>2019B15</t>
-  </si>
-  <si>
-    <t>2019B16</t>
-  </si>
-  <si>
-    <t>2019B17</t>
-  </si>
-  <si>
-    <t>2020A1</t>
-  </si>
-  <si>
-    <t>2020A2</t>
-  </si>
-  <si>
-    <t>2020A3</t>
-  </si>
-  <si>
-    <t>2020A4</t>
-  </si>
-  <si>
-    <t>2020A5</t>
-  </si>
-  <si>
-    <t>2020A6</t>
-  </si>
-  <si>
-    <t>2020A7</t>
-  </si>
-  <si>
-    <t>2020A8</t>
-  </si>
-  <si>
-    <t>2020A9</t>
-  </si>
-  <si>
-    <t>2020A10</t>
-  </si>
-  <si>
-    <t>2020A11</t>
-  </si>
-  <si>
-    <t>2020A12</t>
-  </si>
-  <si>
-    <t>2020A13</t>
-  </si>
-  <si>
-    <t>2020A14</t>
-  </si>
-  <si>
-    <t>2020A15</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1944,34 +1392,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1983,21 +1410,6 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -2023,72 +1435,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2405,3413 +1799,2684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24710EF4-C2B2-4959-A72E-4B0DE8B6F699}">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B2" s="15">
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>200767324</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="16">
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>200655607</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="15">
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>200956312</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="15">
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>200859237</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="16">
+    <row r="6" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>200858951</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="16">
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>200655607</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" s="15">
+    <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>200859307</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" s="15">
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>200859212</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" s="15">
+    <row r="10" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>200913230</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B11" s="15">
+    <row r="11" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>200766998</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="16">
+    <row r="12" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>200858994</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B13" s="15">
+    <row r="13" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>200767294</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B14" s="15">
+    <row r="14" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>201056282</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B15" s="15">
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>200767082</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B16" s="15">
+    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>200767243</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="15">
+    <row r="17" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>200859247</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B18" s="15">
+    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>200858753</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" s="15">
+    <row r="19" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>200858823</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B20" s="15">
+    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>200858847</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B21" s="15">
+    <row r="21" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>200956222</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B22" s="15">
+    <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>201056343</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B23" s="15">
+    <row r="23" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>200558078</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B24" s="15">
+    <row r="24" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>201113033</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B25" s="15">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>201255516</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B26" s="15">
+    <row r="26" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>200859341</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B27" s="15">
+    <row r="27" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>200956166</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B28" s="15">
+    <row r="28" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>200956227</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B29" s="15">
+    <row r="29" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>201153506</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B30" s="15">
+    <row r="30" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>201255634</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B31" s="15">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>200956095</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B32" s="15">
+    <row r="32" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>201255706</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B33" s="15">
+    <row r="33" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>200858796</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B34" s="15">
+    <row r="34" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>200859302</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B35" s="15">
+    <row r="35" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
         <v>200859242</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B36" s="15">
+    <row r="36" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
         <v>200859126</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B37" s="15">
+    <row r="37" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
         <v>200956142</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B38" s="15">
+    <row r="38" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>200956294</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B39" s="15">
+    <row r="39" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>200956106</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B40" s="15">
+    <row r="40" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <v>200956443</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B41" s="15">
+    <row r="41" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>201153664</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B42" s="16">
+    <row r="42" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>200767237</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B43" s="15">
+    <row r="43" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>200956504</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B44" s="15">
+    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>200956332</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B45" s="15">
+    <row r="45" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
         <v>200913228</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B46" s="15">
+    <row r="46" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
         <v>200956289</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B47" s="15">
+    <row r="47" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>201113032</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B48" s="15">
+    <row r="48" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>201313012</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B49" s="16">
+    <row r="49" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>201449947</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B50" s="16">
+    <row r="50" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>201056380</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="16">
+    <row r="51" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>201056422</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B52" s="15">
+    <row r="52" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>201356023</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B53" s="15">
+    <row r="53" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
         <v>201449948</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B54" s="15">
+    <row r="54" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
         <v>201255571</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B55" s="15">
+    <row r="55" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
         <v>201449958</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B56" s="15">
+    <row r="56" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
         <v>200956134</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B57" s="15">
+    <row r="57" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
         <v>201255393</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B58" s="15">
+    <row r="58" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
         <v>201056085</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B59" s="15">
+    <row r="59" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>201056264</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B60" s="16">
+    <row r="60" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
         <v>200858951</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B61" s="15">
+    <row r="61" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>200956115</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B62" s="15">
+    <row r="62" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>200956049</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B63" s="15">
+    <row r="63" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>200956130</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B64" s="15">
+    <row r="64" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>200956573</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B65" s="15">
+    <row r="65" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>201113031</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B66" s="16">
+    <row r="66" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
         <v>200557891</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B67" s="15">
+    <row r="67" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
         <v>201153852</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B68" s="15">
+    <row r="68" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
         <v>201153765</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B69" s="15">
+    <row r="69" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
         <v>201056276</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B70" s="15">
+    <row r="70" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
         <v>201056278</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B71" s="15">
+    <row r="71" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
         <v>201356599</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B72" s="15">
+    <row r="72" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
         <v>201449950</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B73" s="17">
+    <row r="73" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
         <v>201456057</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B74" s="15">
+    <row r="74" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
         <v>200955982</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B75" s="15">
+    <row r="75" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
         <v>201153958</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B76" s="15">
+    <row r="76" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
         <v>200913227</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B77" s="15">
+    <row r="77" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
         <v>201449947</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B78" s="16">
+    <row r="78" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
         <v>201056422</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B79" s="15">
+    <row r="79" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
         <v>201056091</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B80" s="15">
+    <row r="80" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
         <v>201056234</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B81" s="15">
+    <row r="81" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
         <v>201154010</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B82" s="15">
+    <row r="82" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
         <v>201153654</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B83" s="15">
+    <row r="83" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
         <v>201153365</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" s="15">
+    <row r="84" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
         <v>201153328</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B85" s="15">
+    <row r="85" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
         <v>200956203</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B86" s="15">
+    <row r="86" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
         <v>201153676</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B87" s="15">
+    <row r="87" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
         <v>201356388</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B88" s="15">
+    <row r="88" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
         <v>201356430</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B89" s="15">
+    <row r="89" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
         <v>201056380</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B90" s="15">
+    <row r="90" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
         <v>201057189</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B91" s="15">
+    <row r="91" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
         <v>201056272</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B92" s="15">
+    <row r="92" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
         <v>201153785</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B93" s="15">
+    <row r="93" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
         <v>201255183</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B94" s="15">
+    <row r="94" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
         <v>201153641</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B95" s="15">
+    <row r="95" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
         <v>201455990</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B96" s="15">
+    <row r="96" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
         <v>201449956</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B97" s="15">
+    <row r="97" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="10">
         <v>201449954</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B98" s="18">
+    <row r="98" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
         <v>201056287</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B99" s="15">
+    <row r="99" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="10">
         <v>201255158</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B100" s="15">
+    <row r="100" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
         <v>201255896</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B101" s="15">
+    <row r="101" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
         <v>201255455</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B102" s="15">
+    <row r="102" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
         <v>201255724</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="B102" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B103" s="15">
+    <row r="103" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
         <v>201255669</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B104" s="15">
+    <row r="104" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
         <v>201154010</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B105" s="15">
+    <row r="105" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
         <v>200858994</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B106" s="15">
+    <row r="106" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
         <v>201153524</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B107" s="15">
+    <row r="107" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
         <v>201153686</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B108" s="15">
+    <row r="108" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
         <v>201153681</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B109" s="15">
+    <row r="109" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10">
         <v>201255759</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B110" s="15">
+    <row r="110" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
         <v>201556234</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B111" s="15">
+    <row r="111" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="10">
         <v>201556320</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B112" s="15">
+    <row r="112" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10">
         <v>201513003</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B113" s="15">
+    <row r="113" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10">
         <v>201556076</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B114" s="15">
+    <row r="114" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10">
         <v>201255798</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B115" s="15">
+    <row r="115" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10">
         <v>201255416</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B116" s="15">
+    <row r="116" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10">
         <v>201356194</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B117" s="15">
+    <row r="117" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10">
         <v>200767237</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B118" s="15">
+    <row r="118" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10">
         <v>201355842</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B119" s="15">
+    <row r="119" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10">
         <v>201449949</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B120" s="15">
+    <row r="120" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10">
         <v>201356541</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B121" s="15">
+    <row r="121" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10">
         <v>201356055</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B122" s="15">
+    <row r="122" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="10">
         <v>201356431</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B123" s="15">
+    <row r="123" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10">
         <v>201663934</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B124" s="15">
+    <row r="124" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10">
         <v>201513005</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B125" s="15">
+    <row r="125" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="10">
         <v>201356144</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="B125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B126" s="15">
+    <row r="126" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="10">
         <v>201355940</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B127" s="15">
+    <row r="127" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="10">
         <v>201355982</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B128" s="15">
+    <row r="128" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10">
         <v>201355858</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="C128" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B129" s="15">
+    <row r="129" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="10">
         <v>201513141</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B130" s="18">
+    <row r="130" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
         <v>201356434</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B131" s="18">
+    <row r="131" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
         <v>201356054</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="B131" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B132" s="18">
+    <row r="132" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
         <v>200956507</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="B132" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B133" s="19">
+    <row r="133" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="14">
         <v>201356165</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B134" s="18">
+    <row r="134" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="13">
         <v>201356637</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="B134" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B135" s="18">
+    <row r="135" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
         <v>201356486</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B136" s="18">
+    <row r="136" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
         <v>201356630</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B137" s="18">
+    <row r="137" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
         <v>201255218</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B138" s="18">
+    <row r="138" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13">
         <v>201663714</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B139" s="18">
+    <row r="139" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13">
         <v>201356195</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B140" s="18">
+    <row r="140" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
         <v>201255229</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B141" s="18">
+    <row r="141" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13">
         <v>201667410</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B142" s="15">
+    <row r="142" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="10">
         <v>201663973</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B143" s="15">
+    <row r="143" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="10">
         <v>201455634</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B144" s="15">
+    <row r="144" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="10">
         <v>201455601</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B145" s="15">
+    <row r="145" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="10">
         <v>201455775</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="B145" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="C145" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B146" s="15">
+    <row r="146" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10">
         <v>201455721</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B147" s="15">
+    <row r="147" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="10">
         <v>201255414</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="B147" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B148" s="15">
+    <row r="148" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="10">
         <v>201663954</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="B148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="C148" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B149" s="15">
+    <row r="149" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="10">
         <v>201667651</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="B149" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="C149" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B150" s="15">
+    <row r="150" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="10">
         <v>201356327</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="B150" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="C150" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B151" s="15">
+    <row r="151" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10">
         <v>201153307</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B152" s="18">
+    <row r="152" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="13">
         <v>201255507</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="B152" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="C152" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B153" s="18">
+    <row r="153" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13">
         <v>201455778</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="B153" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="C153" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B154" s="18">
+    <row r="154" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
         <v>201455817</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="B154" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="C154" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B155" s="18">
+    <row r="155" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
         <v>201667646</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="B155" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B156" s="18">
+    <row r="156" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13">
         <v>201455708</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="B156" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="C156" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B157" s="18">
+    <row r="157" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13">
         <v>201455983</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="B157" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B158" s="18">
+    <row r="158" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
         <v>201455962</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="B158" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="C158" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B159" s="18">
+    <row r="159" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13">
         <v>201455641</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="B159" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="C159" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="B160" s="18">
+    <row r="160" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="13">
         <v>200046578</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="C160" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B161" s="18">
+    <row r="161" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
         <v>201667602</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="B161" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="C161" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B162" s="18">
+    <row r="162" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
         <v>201667600</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="C162" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B163" s="18">
+    <row r="163" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
         <v>201667471</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="B163" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="C163" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="B164" s="18">
+    <row r="164" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
         <v>201667432</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="B164" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="C164" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="B165" s="18">
+    <row r="165" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13">
         <v>201663797</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="B165" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="C165" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B166" s="18">
+    <row r="166" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
         <v>201613015</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="B166" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="C166" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B167" s="19">
+    <row r="167" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="14">
         <v>201663835</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="B167" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="C167" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="B168" s="19">
+    <row r="168" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="14">
         <v>201663734</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="B168" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="C168" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B169" s="20">
+    <row r="169" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="15">
         <v>201455953</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="B169" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="C169" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B170" s="18">
+    <row r="170" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="13">
         <v>201455881</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="B170" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="C170" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B171" s="18">
+    <row r="171" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="13">
         <v>201455643</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="B171" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="C171" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B172" s="18">
+    <row r="172" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="13">
         <v>201455975</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="B172" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="C172" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B173" s="18">
+    <row r="173" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="13">
         <v>201556020</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="B173" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="C173" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="B174" s="18">
+    <row r="174" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13">
         <v>201455722</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="C174" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="B175" s="18">
+    <row r="175" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="13">
         <v>201663810</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="C175" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B176" s="18">
+    <row r="176" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="13">
         <v>201667470</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="B176" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="C176" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B177" s="18">
+    <row r="177" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="13">
         <v>201759826</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="B177" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="C177" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="B178" s="18">
+    <row r="178" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="13">
         <v>201667469</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="B178" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="C178" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="B179" s="18">
+    <row r="179" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="13">
         <v>201667552</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="B179" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="C179" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B180" s="18">
+    <row r="180" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="13">
         <v>201556009</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="B180" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="C180" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B181" s="18">
+    <row r="181" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="13">
         <v>201556168</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="B181" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="C181" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B182" s="18">
+    <row r="182" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13">
         <v>201556275</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="B182" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="C182" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B183" s="18">
+    <row r="183" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="13">
         <v>201556213</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="B183" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="C183" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B184" s="18">
+    <row r="184" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="13">
         <v>201556027</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="B184" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="C184" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B185" s="18">
+    <row r="185" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="13">
         <v>201556156</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="B185" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="C185" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B186" s="18">
+    <row r="186" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="13">
         <v>201455749</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="C186" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B187" s="18">
+    <row r="187" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="13">
         <v>201449952</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="B187" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="C187" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="B188" s="18">
+    <row r="188" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13">
         <v>201355815</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="B188" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="C188" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B189" s="20">
+    <row r="189" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="15">
         <v>201255699</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="B189" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="C189" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B190" s="20">
+    <row r="190" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="15">
         <v>201556246</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="B190" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="C190" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="B191" s="19">
+    <row r="191" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="14">
         <v>201556060</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="B191" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="C191" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B192" s="19">
+    <row r="192" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="14">
         <v>201556007</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="B192" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="C192" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B193" s="18">
+    <row r="193" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="13">
         <v>201556231</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="B193" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="C193" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B194" s="18">
+    <row r="194" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="13">
         <v>201556139</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="B194" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="C194" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B195" s="18">
+    <row r="195" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="13">
         <v>201556134</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="B195" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="C195" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B196" s="18">
+    <row r="196" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13">
         <v>201556123</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="B196" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="C196" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B197" s="19">
+    <row r="197" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="14">
         <v>201667471</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="B197" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="C197" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B198" s="18">
+    <row r="198" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13">
         <v>201355821</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="B198" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="C198" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B199" s="18">
+    <row r="199" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="13">
         <v>201556206</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="B199" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="C199" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B200" s="18">
+    <row r="200" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="13">
         <v>201765631</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="B200" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="C200" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B201" s="18">
+    <row r="201" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="13">
         <v>201765690</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="B201" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="C201" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B202" s="18">
+    <row r="202" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="13">
         <v>201556001</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="B202" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="C202" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B203" s="18">
+    <row r="203" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="13">
         <v>201556203</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="B203" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="C203" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B204" s="18">
+    <row r="204" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="13">
         <v>201556087</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="B204" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="C204" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B205" s="20">
+    <row r="205" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15">
         <v>201550180</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="B205" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="C205" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B206" s="20">
+    <row r="206" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="15">
         <v>201556048</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="B206" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="C206" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B207" s="20">
+    <row r="207" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="15">
         <v>201556235</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="B207" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="C207" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B208" s="18">
+    <row r="208" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="13">
         <v>201663787</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="B208" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="C208" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B209" s="18">
+    <row r="209" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="13">
         <v>201664103</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="B209" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="C209" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B210" s="18">
+    <row r="210" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="13">
         <v>201556055</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="B210" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="C210" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B211" s="18">
+    <row r="211" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="13">
         <v>201556089</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="B211" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="C211" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B212" s="18">
+    <row r="212" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="13">
         <v>201356132</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="B212" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="C212" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B213" s="18">
+    <row r="213" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="13">
         <v>201866236</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="B213" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="C213" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B214" s="20">
+    <row r="214" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="15">
         <v>201556017</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="B214" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="C214" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="B215" s="20">
+    <row r="215" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15">
         <v>201556071</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="B215" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="C215" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B216" s="18">
+    <row r="216" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="13">
         <v>201860098</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="B216" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="C216" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B217" s="18">
+    <row r="217" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="13">
         <v>201556073</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="B217" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="C217" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B218" s="20">
+    <row r="218" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="15">
         <v>201556124</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="B218" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="C218" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B219" s="20">
+    <row r="219" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="15">
         <v>201667424</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="B219" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="C219" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="B220" s="21">
+    <row r="220" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="16">
         <v>201664060</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="B220" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D220" s="9" t="s">
+      <c r="C220" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B221" s="20">
+    <row r="221" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="15">
         <v>201958893</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="B221" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="C221" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="B222" s="20">
+    <row r="222" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15">
         <v>201765624</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="B222" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="C222" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B223" s="20">
+    <row r="223" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15">
         <v>201663790</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="B223" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="C223" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B224" s="18">
+    <row r="224" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="13">
         <v>201913131</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="B224" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D224" s="9" t="s">
+      <c r="C224" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B225" s="18">
+    <row r="225" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="13">
         <v>201866202</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="B225" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D225" s="9" t="s">
+      <c r="C225" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="B226" s="18">
+    <row r="226" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="13">
         <v>201667464</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="B226" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="C226" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="B227" s="18">
+    <row r="227" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="13">
         <v>201455989</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="B227" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="C227" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B228" s="18">
+    <row r="228" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="13">
         <v>201556272</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="B228" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="C228" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="B229" s="18">
+    <row r="229" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="13">
         <v>201913132</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="B229" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="C229" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B230" s="18">
+    <row r="230" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="13">
         <v>201759591</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="B230" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="C230" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B231" s="18">
+    <row r="231" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="13">
         <v>201667619</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="B231" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="C231" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B232" s="18">
+    <row r="232" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="13">
         <v>201556221</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="B232" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="C232" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B233" s="18">
+    <row r="233" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="13">
         <v>200655429</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="B233" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="C233" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B234" s="18">
+    <row r="234" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="13">
         <v>201866171</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="B234" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="C234" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B235" s="18">
+    <row r="235" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="13">
         <v>201866133</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="B235" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="C235" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B236" s="18">
+    <row r="236" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13">
         <v>201866130</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="B236" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="C236" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B237" s="18">
+    <row r="237" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="13">
         <v>201667564</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="B237" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="C237" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B238" s="18">
+    <row r="238" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="13">
         <v>201667614</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="C238" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="B239" s="18">
+    <row r="239" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="13">
         <v>201663740</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="B239" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="C239" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="B240" s="18">
+    <row r="240" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="13">
         <v>201663931</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="B240" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="C240" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B241" s="18">
+    <row r="241" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="13">
         <v>201663928</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="B241" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="C241" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B242" s="18">
+    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="13">
         <v>201663916</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="B242" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="C242" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="B243" s="18">
+    <row r="243" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="13">
         <v>201913133</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="B243" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="C243" s="6" t="s">
         <v>424</v>
       </c>
     </row>
